--- a/Analisi/Analisi_Dei_Costi_E_Benefici.xlsx
+++ b/Analisi/Analisi_Dei_Costi_E_Benefici.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Costi" sheetId="1" r:id="rId1"/>
     <sheet name="Benefici" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Analisi dei costi</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>Costo nel primo anno</t>
+  </si>
+  <si>
+    <t>Costo del personale</t>
+  </si>
+  <si>
+    <t>Il costo orario del personale</t>
   </si>
 </sst>
 </file>
@@ -436,14 +442,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -464,9 +470,16 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <f>62*40.5</f>
+        <v>2511</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -519,9 +532,14 @@
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4">
+        <f>SUM(C5:C15)</f>
+        <v>2511</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -533,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +623,10 @@
       <c r="A16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4">
+        <f>SUM(B5:B15)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analisi/Analisi_Dei_Costi_E_Benefici.xlsx
+++ b/Analisi/Analisi_Dei_Costi_E_Benefici.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Costi" sheetId="1" r:id="rId1"/>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="A6:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,8 +477,8 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <f>62*40.5</f>
-        <v>2511</v>
+        <f>62*24</f>
+        <v>1488</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -538,7 +538,7 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4">
         <f>SUM(C5:C15)</f>
-        <v>2511</v>
+        <v>1488</v>
       </c>
     </row>
   </sheetData>
@@ -551,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
